--- a/Cursos/Dio/Python/Arquivos/Cusro_Python_Pandas_Digital_Innovation-master/datasets/Natal.xlsx
+++ b/Cursos/Dio/Python/Arquivos/Cusro_Python_Pandas_Digital_Innovation-master/datasets/Natal.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ftspu\OneDrive\Documentos\Material Curso\Painel2.1_Vendas\Dados\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
@@ -47,10 +42,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;R$&quot;#,##0;[Red]\-&quot;R$&quot;#,##0"/>
-    <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0;[Red]\-&quot;R$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -84,15 +79,15 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
@@ -112,7 +107,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:E241" totalsRowShown="0">
-  <autoFilter ref="A1:E241"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Cidade"/>
     <tableColumn id="2" name="Data" dataDxfId="1"/>
@@ -379,7 +373,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -390,7 +384,7 @@
   <dimension ref="A1:E241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2:E241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
